--- a/Relatorio_Projeto_DA_PL2-A.xlsx
+++ b/Relatorio_Projeto_DA_PL2-A.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myipleiria-my.sharepoint.com/personal/2241868_my_ipleiria_pt/Documents/DA/PSI_DA_PL2-A/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{D33B6534-47A1-4B92-A907-03D1A4222DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51F2E7F8-EB52-4F5F-BAFF-3286DD1DDD79}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{D33B6534-47A1-4B92-A907-03D1A4222DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6274BC5-7ED6-418E-A421-891FDD7F8F7E}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="gM3we6J0DihOXhhsVCVKEXQOkV9atHBEZEgMEOHliw2f+IhL1XhdH2iU/lWL6zpI42wRp6vwQ5IcaeTeZHIQSg==" workbookSaltValue="GQxFLs+f58FLaT3gnUsMQg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relatório Projeto - DA" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>Elementos do Grupo:</t>
   </si>
@@ -279,6 +279,12 @@
   </si>
   <si>
     <t>https://github.com/eduardo-1912/PSI_DA_PL2-A</t>
+  </si>
+  <si>
+    <t>Completo</t>
+  </si>
+  <si>
+    <t>Parcial</t>
   </si>
 </sst>
 </file>
@@ -748,6 +754,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -768,9 +793,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -780,17 +802,66 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -804,73 +875,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1621,6 +1627,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1888,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57:E57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61:E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1947,28 +1957,28 @@
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="2:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
     </row>
     <row r="9" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
@@ -1999,16 +2009,16 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
     </row>
     <row r="14" spans="2:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
@@ -2072,26 +2082,26 @@
       <c r="I17" s="52"/>
     </row>
     <row r="18" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
     </row>
     <row r="19" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
     </row>
     <row r="20" spans="2:9" s="11" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="46" t="s">
@@ -2106,38 +2116,38 @@
       <c r="I20" s="46"/>
     </row>
     <row r="21" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
     </row>
     <row r="23" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
     </row>
     <row r="24" spans="2:9" s="11" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
@@ -2148,63 +2158,63 @@
       <c r="E24" s="19"/>
     </row>
     <row r="25" spans="2:9" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
     </row>
     <row r="27" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
     </row>
     <row r="28" spans="2:9" s="11" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
     </row>
     <row r="29" spans="2:9" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
     </row>
     <row r="30" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="7"/>
     </row>
     <row r="31" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
     </row>
     <row r="32" spans="2:9" s="11" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
@@ -2215,14 +2225,14 @@
       <c r="E32" s="19"/>
     </row>
     <row r="33" spans="2:9" ht="57.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="21"/>
@@ -2235,206 +2245,206 @@
       <c r="I34" s="21"/>
     </row>
     <row r="36" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
     </row>
     <row r="37" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
     </row>
     <row r="38" spans="2:9" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
     </row>
     <row r="39" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="C39" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="34" t="s">
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="35"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="28"/>
     </row>
     <row r="40" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="31"/>
-      <c r="C40" s="23" t="s">
+      <c r="B40" s="36"/>
+      <c r="C40" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="30"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="33"/>
+    </row>
+    <row r="41" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="28"/>
+    </row>
+    <row r="42" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="36"/>
+      <c r="C42" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="24"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="27"/>
-    </row>
-    <row r="41" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="35"/>
-    </row>
-    <row r="42" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="31"/>
-      <c r="C42" s="23" t="s">
+      <c r="D42" s="30"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="33"/>
+    </row>
+    <row r="43" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="28"/>
+    </row>
+    <row r="44" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="36"/>
+      <c r="C44" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="30"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="33"/>
+    </row>
+    <row r="45" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="28"/>
+    </row>
+    <row r="46" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="36"/>
+      <c r="C46" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="27"/>
-    </row>
-    <row r="43" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="35"/>
-    </row>
-    <row r="44" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="31"/>
-      <c r="C44" s="23" t="s">
+      <c r="D46" s="55"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="39"/>
+    </row>
+    <row r="47" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="28"/>
+    </row>
+    <row r="48" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="36"/>
+      <c r="C48" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="24"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="27"/>
-    </row>
-    <row r="45" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="35"/>
-    </row>
-    <row r="46" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="31"/>
-      <c r="C46" s="36" t="s">
+      <c r="D48" s="30"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="33"/>
+    </row>
+    <row r="49" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="28"/>
+    </row>
+    <row r="50" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="36"/>
+      <c r="C50" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="37"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="56"/>
-    </row>
-    <row r="47" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="35"/>
-    </row>
-    <row r="48" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="31"/>
-      <c r="C48" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="24"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="27"/>
-    </row>
-    <row r="49" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="35"/>
-    </row>
-    <row r="50" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="31"/>
-      <c r="C50" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="24"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="27"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="33"/>
     </row>
     <row r="51" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
@@ -2447,166 +2457,226 @@
       <c r="I51" s="21"/>
     </row>
     <row r="53" spans="2:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="39" t="s">
+      <c r="B53" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
     </row>
     <row r="54" spans="2:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
     </row>
     <row r="55" spans="2:9" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="29"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="29"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
     </row>
     <row r="56" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C56" s="32" t="s">
+      <c r="C56" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="34" t="s">
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="35"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="28"/>
     </row>
     <row r="57" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="31"/>
-      <c r="C57" s="23" t="s">
+      <c r="B57" s="36"/>
+      <c r="C57" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="24"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="27"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="33"/>
     </row>
     <row r="58" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="C58" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="34" t="s">
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="35"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="28"/>
     </row>
     <row r="59" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="31"/>
-      <c r="C59" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" s="24"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="27"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="30"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="33"/>
     </row>
     <row r="60" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="32" t="s">
+      <c r="C60" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="34" t="s">
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="35"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="28"/>
     </row>
     <row r="61" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="31"/>
-      <c r="C61" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" s="24"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="27"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="30"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="33"/>
     </row>
     <row r="62" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C62" s="32" t="s">
+      <c r="C62" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="34" t="s">
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="35"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="28"/>
     </row>
     <row r="63" spans="2:9" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="31"/>
-      <c r="C63" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" s="24"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="27"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" s="30"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="33"/>
     </row>
     <row r="65" spans="2:9" s="13" customFormat="1" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="28" t="s">
+      <c r="B65" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="57"/>
     </row>
   </sheetData>
   <sheetProtection insertHyperlinks="0" selectLockedCells="1"/>
   <mergeCells count="76">
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="C42:E42"/>
     <mergeCell ref="B36:I36"/>
     <mergeCell ref="B33:I33"/>
     <mergeCell ref="C49:E49"/>
@@ -2623,66 +2693,6 @@
     <mergeCell ref="B37:I37"/>
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="F46:I46"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="B53:I53"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="B65:I65"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="B55:I55"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="B58:B59"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C39:E40">
